--- a/gip timingtabel .xlsx
+++ b/gip timingtabel .xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eigenaar\OneDrive - PROVIL ION\school\24-25\Gip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55EA889D-039A-4023-A6F5-9844C9CF1E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E570E515-4E90-430F-A136-379423849F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{3961AC02-1F47-45D4-ABFB-9B1609F8AEF6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3961AC02-1F47-45D4-ABFB-9B1609F8AEF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="63">
   <si>
     <t>Leerling:</t>
   </si>
@@ -639,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBD9DDF-9A40-48FC-931F-B7F2BC064616}">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1449,7 +1448,22 @@
       </c>
       <c r="E45" s="1"/>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="G45" s="4">
+        <v>45734</v>
+      </c>
+      <c r="H45" s="4">
+        <v>45734</v>
+      </c>
+      <c r="I45" s="4">
+        <v>45734</v>
+      </c>
+      <c r="J45" t="s">
+        <v>35</v>
+      </c>
+      <c r="K45" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
@@ -1461,6 +1475,21 @@
       <c r="E46" s="1"/>
       <c r="F46" t="s">
         <v>37</v>
+      </c>
+      <c r="G46" s="4">
+        <v>45706</v>
+      </c>
+      <c r="H46" s="4">
+        <v>45706</v>
+      </c>
+      <c r="I46" s="4">
+        <v>45706</v>
+      </c>
+      <c r="J46" t="s">
+        <v>12</v>
+      </c>
+      <c r="K46" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">

--- a/gip timingtabel .xlsx
+++ b/gip timingtabel .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eigenaar\OneDrive - PROVIL ION\school\24-25\Gip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E570E515-4E90-430F-A136-379423849F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA4250D-2032-4028-B0ED-F67DD77AC53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3961AC02-1F47-45D4-ABFB-9B1609F8AEF6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3961AC02-1F47-45D4-ABFB-9B1609F8AEF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="67">
   <si>
     <t>Leerling:</t>
   </si>
@@ -225,6 +225,18 @@
   </si>
   <si>
     <t>reservering mail sturen</t>
+  </si>
+  <si>
+    <t>Nummerplaat</t>
+  </si>
+  <si>
+    <t>herkenning van nummerplaat op afbeelding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filteren op land formaat </t>
+  </si>
+  <si>
+    <t>2,5 uur</t>
   </si>
 </sst>
 </file>
@@ -638,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBD9DDF-9A40-48FC-931F-B7F2BC064616}">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1500,53 +1512,80 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F49" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" s="4">
+        <v>45740</v>
+      </c>
+      <c r="H49" s="4">
+        <v>45740</v>
+      </c>
+      <c r="I49" s="4">
+        <v>45740</v>
+      </c>
+      <c r="J49" t="s">
+        <v>66</v>
+      </c>
+      <c r="K49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="5"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="5"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
         <v>53</v>
       </c>
@@ -1554,49 +1593,49 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="5"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="5"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="5"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>

--- a/gip timingtabel .xlsx
+++ b/gip timingtabel .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eigenaar\OneDrive - PROVIL ION\school\24-25\Gip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA4250D-2032-4028-B0ED-F67DD77AC53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585333B6-24A3-42AF-904D-2DEEC9891A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3961AC02-1F47-45D4-ABFB-9B1609F8AEF6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3961AC02-1F47-45D4-ABFB-9B1609F8AEF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="73">
   <si>
     <t>Leerling:</t>
   </si>
@@ -237,6 +237,24 @@
   </si>
   <si>
     <t>2,5 uur</t>
+  </si>
+  <si>
+    <t>indienen stap 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin pagina verbeteren </t>
+  </si>
+  <si>
+    <t>Styling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">css aanpassen </t>
+  </si>
+  <si>
+    <t>woordkeuze aanpassen indien nodig</t>
   </si>
 </sst>
 </file>
@@ -650,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBD9DDF-9A40-48FC-931F-B7F2BC064616}">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1512,7 +1530,7 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D48" s="1"/>
@@ -1554,6 +1572,21 @@
       <c r="F50" t="s">
         <v>37</v>
       </c>
+      <c r="G50" s="4">
+        <v>45741</v>
+      </c>
+      <c r="H50" s="4">
+        <v>45741</v>
+      </c>
+      <c r="I50" s="4">
+        <v>45741</v>
+      </c>
+      <c r="J50" t="s">
+        <v>12</v>
+      </c>
+      <c r="K50" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
@@ -1564,8 +1597,13 @@
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="1"/>
+      <c r="D52" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E52" s="1"/>
+      <c r="G52" s="4">
+        <v>45741</v>
+      </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
@@ -1595,14 +1633,18 @@
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
-      <c r="C57" s="5"/>
+      <c r="C57" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
@@ -1619,20 +1661,26 @@
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
-      <c r="C61" s="5"/>
+      <c r="C61" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">

--- a/gip timingtabel .xlsx
+++ b/gip timingtabel .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eigenaar\OneDrive - PROVIL ION\school\24-25\Gip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585333B6-24A3-42AF-904D-2DEEC9891A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C24B57-E277-47CB-8493-799BF93B6C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3961AC02-1F47-45D4-ABFB-9B1609F8AEF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
   <si>
     <t>Leerling:</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>woordkeuze aanpassen indien nodig</t>
+  </si>
+  <si>
+    <t>indienen stap 3</t>
   </si>
 </sst>
 </file>
@@ -668,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBD9DDF-9A40-48FC-931F-B7F2BC064616}">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1646,6 +1649,24 @@
         <v>69</v>
       </c>
       <c r="E58" s="1"/>
+      <c r="F58" t="s">
+        <v>35</v>
+      </c>
+      <c r="G58" s="4">
+        <v>45741</v>
+      </c>
+      <c r="H58" s="4">
+        <v>45741</v>
+      </c>
+      <c r="I58" s="4">
+        <v>45741</v>
+      </c>
+      <c r="J58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K58" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
@@ -1674,6 +1695,24 @@
         <v>71</v>
       </c>
       <c r="E62" s="1"/>
+      <c r="F62" t="s">
+        <v>35</v>
+      </c>
+      <c r="G62" s="4">
+        <v>45747</v>
+      </c>
+      <c r="H62" s="4">
+        <v>45747</v>
+      </c>
+      <c r="I62" s="4">
+        <v>45747</v>
+      </c>
+      <c r="J62" t="s">
+        <v>35</v>
+      </c>
+      <c r="K62" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
@@ -1682,6 +1721,24 @@
         <v>72</v>
       </c>
       <c r="E63" s="1"/>
+      <c r="F63" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63" s="4">
+        <v>45748</v>
+      </c>
+      <c r="H63" s="4">
+        <v>45748</v>
+      </c>
+      <c r="I63" s="4">
+        <v>45748</v>
+      </c>
+      <c r="J63" t="s">
+        <v>35</v>
+      </c>
+      <c r="K63" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
@@ -1689,97 +1746,102 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+      <c r="D65" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="E65" s="1"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G65" s="4">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
